--- a/REGULAR/RE-ENCODE/MACASPAC, JOSE VICTOR.xlsx
+++ b/REGULAR/RE-ENCODE/MACASPAC, JOSE VICTOR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F9E506-45FD-43CF-8A0C-AA1582C3BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -270,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -959,25 +958,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1284,34 +1283,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1331,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1351,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1373,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1382,7 +1381,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1395,7 +1394,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1412,7 +1411,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1456,7 +1455,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1466,12 +1465,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>54.75</v>
+        <v>55</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1493,7 +1492,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1513,7 +1512,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1533,7 +1532,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1553,7 +1552,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1573,7 +1572,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>43226</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>45</v>
@@ -1618,7 +1617,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -1670,7 +1669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -1690,7 +1689,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -1710,7 +1709,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>43387</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -1786,7 +1785,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>51</v>
       </c>
@@ -1804,7 +1803,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1849,7 +1848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
@@ -1869,7 +1868,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43525</v>
       </c>
@@ -1889,7 +1888,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43556</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>46</v>
@@ -1934,7 +1933,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -1954,7 +1953,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -2000,7 +1999,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -2020,7 +2019,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -2040,7 +2039,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -2088,7 +2087,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>57</v>
       </c>
@@ -2132,7 +2131,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -2175,7 +2174,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>61</v>
@@ -2192,7 +2191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -2212,7 +2211,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43891</v>
       </c>
@@ -2232,7 +2231,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43922</v>
       </c>
@@ -2252,7 +2251,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43952</v>
       </c>
@@ -2272,7 +2271,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43983</v>
       </c>
@@ -2294,7 +2293,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44013</v>
       </c>
@@ -2314,7 +2313,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44044</v>
       </c>
@@ -2334,7 +2333,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44075</v>
       </c>
@@ -2354,7 +2353,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44105</v>
       </c>
@@ -2374,7 +2373,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44136</v>
       </c>
@@ -2394,7 +2393,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44166</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>48</v>
@@ -2442,7 +2441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>67</v>
       </c>
@@ -2460,7 +2459,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44197</v>
       </c>
@@ -2480,7 +2479,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44228</v>
       </c>
@@ -2500,7 +2499,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44256</v>
       </c>
@@ -2520,7 +2519,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44287</v>
       </c>
@@ -2540,7 +2539,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44317</v>
       </c>
@@ -2560,7 +2559,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44348</v>
       </c>
@@ -2580,7 +2579,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44378</v>
       </c>
@@ -2600,7 +2599,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44409</v>
       </c>
@@ -2620,7 +2619,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44440</v>
       </c>
@@ -2640,7 +2639,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44470</v>
       </c>
@@ -2660,7 +2659,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44501</v>
       </c>
@@ -2680,7 +2679,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44531</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>48</v>
@@ -2728,7 +2727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>70</v>
       </c>
@@ -2746,7 +2745,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44562</v>
       </c>
@@ -2766,7 +2765,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44593</v>
       </c>
@@ -2786,7 +2785,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44621</v>
       </c>
@@ -2806,7 +2805,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44652</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44682</v>
       </c>
@@ -2852,7 +2851,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44713</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>53</v>
@@ -2898,7 +2897,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -2920,7 +2919,7 @@
         <v>44780</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44743</v>
       </c>
@@ -2940,7 +2939,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44774</v>
       </c>
@@ -2960,7 +2959,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44805</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>44815</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44835</v>
       </c>
@@ -3006,7 +3005,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44866</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44896</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>58</v>
@@ -3078,7 +3077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>72</v>
       </c>
@@ -3096,7 +3095,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44927</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44958</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44986</v>
       </c>
@@ -3174,29 +3173,33 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45017</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45047</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -3205,12 +3208,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="49">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45078</v>
       </c>
@@ -3228,7 +3235,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45108</v>
       </c>
@@ -3246,7 +3253,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45139</v>
       </c>
@@ -3264,7 +3271,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45170</v>
       </c>
@@ -3282,7 +3289,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45200</v>
       </c>
@@ -3300,7 +3307,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45231</v>
       </c>
@@ -3318,7 +3325,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45261</v>
       </c>
@@ -3336,7 +3343,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45292</v>
       </c>
@@ -3354,7 +3361,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45323</v>
       </c>
@@ -3372,7 +3379,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45352</v>
       </c>
@@ -3390,7 +3397,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45383</v>
       </c>
@@ -3408,7 +3415,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45413</v>
       </c>
@@ -3426,7 +3433,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45444</v>
       </c>
@@ -3444,7 +3451,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45474</v>
       </c>
@@ -3462,7 +3469,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45505</v>
       </c>
@@ -3480,7 +3487,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45536</v>
       </c>
@@ -3498,7 +3505,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45566</v>
       </c>
@@ -3516,7 +3523,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45597</v>
       </c>
@@ -3534,7 +3541,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45627</v>
       </c>
@@ -3552,7 +3559,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45658</v>
       </c>
@@ -3570,7 +3577,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45689</v>
       </c>
@@ -3588,7 +3595,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45717</v>
       </c>
@@ -3606,7 +3613,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45748</v>
       </c>
@@ -3624,7 +3631,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45778</v>
       </c>
@@ -3642,7 +3649,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45809</v>
       </c>
@@ -3660,7 +3667,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45839</v>
       </c>
@@ -3678,7 +3685,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45870</v>
       </c>
@@ -3696,7 +3703,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45901</v>
       </c>
@@ -3714,7 +3721,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45931</v>
       </c>
@@ -3732,7 +3739,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45962</v>
       </c>
@@ -3750,7 +3757,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45992</v>
       </c>
@@ -3768,7 +3775,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46023</v>
       </c>
@@ -3786,7 +3793,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46054</v>
       </c>
@@ -3804,7 +3811,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46082</v>
       </c>
@@ -3822,7 +3829,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46113</v>
       </c>
@@ -3840,7 +3847,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46143</v>
       </c>
@@ -3858,7 +3865,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46174</v>
       </c>
@@ -3876,7 +3883,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46204</v>
       </c>
@@ -3894,7 +3901,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46235</v>
       </c>
@@ -3912,7 +3919,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46266</v>
       </c>
@@ -3930,7 +3937,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46296</v>
       </c>
@@ -3948,7 +3955,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>46327</v>
       </c>
@@ -3966,7 +3973,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>46357</v>
       </c>
@@ -3984,7 +3991,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>46388</v>
       </c>
@@ -4002,7 +4009,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -4033,10 +4040,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4059,28 +4066,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -4093,7 +4100,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4122,7 +4129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4142,17 +4149,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4173,7 +4180,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4200,7 +4207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4226,7 +4233,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4252,7 +4259,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4304,7 +4311,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4330,7 +4337,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4402,7 +4409,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4463,7 +4470,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4505,7 +4512,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4526,7 +4533,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4547,7 +4554,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4568,7 +4575,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4610,7 +4617,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4631,7 +4638,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4652,7 +4659,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4673,7 +4680,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4694,7 +4701,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4715,7 +4722,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4736,7 +4743,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4757,7 +4764,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4778,7 +4785,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4820,7 +4827,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4841,7 +4848,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4862,7 +4869,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4871,7 +4878,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4880,7 +4887,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4889,7 +4896,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4898,7 +4905,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4907,7 +4914,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4916,7 +4923,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4925,7 +4932,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4934,7 +4941,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4943,7 +4950,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4952,7 +4959,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4961,7 +4968,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4970,7 +4977,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4979,7 +4986,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4988,7 +4995,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4997,7 +5004,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5006,7 +5013,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5015,7 +5022,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5024,7 +5031,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5033,7 +5040,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5042,7 +5049,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5051,7 +5058,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5060,7 +5067,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5069,7 +5076,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5078,7 +5085,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5087,7 +5094,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5096,7 +5103,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5105,7 +5112,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5114,7 +5121,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5123,7 +5130,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/MACASPAC, JOSE VICTOR.xlsx
+++ b/REGULAR/RE-ENCODE/MACASPAC, JOSE VICTOR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27723C1E-4664-4058-AC2D-C500763DCA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -264,12 +265,15 @@
   </si>
   <si>
     <t>3/23,26/23</t>
+  </si>
+  <si>
+    <t>5/31 - 6/2/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -958,25 +962,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1283,34 +1287,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A79" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
+      <pane ySplit="4056" topLeftCell="A82" activePane="bottomLeft"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1335,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1351,7 +1355,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1373,7 +1377,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1381,7 +1385,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1394,7 +1398,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1411,7 +1415,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1455,7 +1459,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55</v>
+        <v>53.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1465,12 +1469,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1492,7 +1496,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1512,7 +1516,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1532,7 +1536,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1552,7 +1556,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1572,7 +1576,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>43226</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>45</v>
@@ -1617,7 +1621,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -1689,7 +1693,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -1709,7 +1713,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>43387</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -1785,7 +1789,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>51</v>
       </c>
@@ -1803,7 +1807,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1848,7 +1852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
@@ -1868,7 +1872,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43525</v>
       </c>
@@ -1888,7 +1892,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43556</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>46</v>
@@ -1933,7 +1937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -1953,7 +1957,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -1979,7 +1983,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -1999,7 +2003,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -2019,7 +2023,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -2039,7 +2043,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>57</v>
       </c>
@@ -2131,7 +2135,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -2155,7 +2159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -2174,7 +2178,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>61</v>
@@ -2191,7 +2195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -2211,7 +2215,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43891</v>
       </c>
@@ -2231,7 +2235,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43922</v>
       </c>
@@ -2251,7 +2255,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43952</v>
       </c>
@@ -2271,7 +2275,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43983</v>
       </c>
@@ -2293,7 +2297,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44013</v>
       </c>
@@ -2313,7 +2317,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44044</v>
       </c>
@@ -2333,7 +2337,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44075</v>
       </c>
@@ -2353,7 +2357,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44105</v>
       </c>
@@ -2373,7 +2377,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44136</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44166</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>48</v>
@@ -2441,7 +2445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>67</v>
       </c>
@@ -2459,7 +2463,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44197</v>
       </c>
@@ -2479,7 +2483,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44228</v>
       </c>
@@ -2499,7 +2503,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44256</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44287</v>
       </c>
@@ -2539,7 +2543,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44317</v>
       </c>
@@ -2559,7 +2563,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44348</v>
       </c>
@@ -2579,7 +2583,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44378</v>
       </c>
@@ -2599,7 +2603,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44409</v>
       </c>
@@ -2619,7 +2623,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44440</v>
       </c>
@@ -2639,7 +2643,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44470</v>
       </c>
@@ -2659,7 +2663,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44501</v>
       </c>
@@ -2679,7 +2683,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44531</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>48</v>
@@ -2727,7 +2731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>70</v>
       </c>
@@ -2745,7 +2749,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44562</v>
       </c>
@@ -2765,7 +2769,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44593</v>
       </c>
@@ -2785,7 +2789,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44621</v>
       </c>
@@ -2805,7 +2809,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44652</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44682</v>
       </c>
@@ -2851,7 +2855,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44713</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>53</v>
@@ -2897,7 +2901,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -2919,7 +2923,7 @@
         <v>44780</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44743</v>
       </c>
@@ -2939,7 +2943,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44774</v>
       </c>
@@ -2959,7 +2963,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44805</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>44815</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44835</v>
       </c>
@@ -3005,7 +3009,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44866</v>
       </c>
@@ -3031,7 +3035,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44896</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>58</v>
@@ -3077,7 +3081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>72</v>
       </c>
@@ -3095,7 +3099,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44927</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44958</v>
       </c>
@@ -3147,7 +3151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44986</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45017</v>
       </c>
@@ -3193,20 +3197,22 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45047</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39">
         <v>1</v>
@@ -3217,13 +3223,15 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B91" s="20"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40"/>
+      <c r="B91" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
+      <c r="D91" s="39">
+        <v>3</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -3233,11 +3241,13 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3253,9 +3263,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3271,9 +3281,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3289,9 +3299,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3307,9 +3317,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3325,9 +3335,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3343,9 +3353,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3361,9 +3371,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3379,9 +3389,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3397,9 +3407,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3415,9 +3425,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3433,9 +3443,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3451,9 +3461,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3469,9 +3479,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3487,9 +3497,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3505,9 +3515,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3523,9 +3533,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3541,9 +3551,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3559,9 +3569,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3577,9 +3587,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3595,9 +3605,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3613,9 +3623,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3631,9 +3641,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3649,9 +3659,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3667,9 +3677,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3685,9 +3695,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3703,9 +3713,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3721,9 +3731,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3739,9 +3749,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3757,9 +3767,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3775,9 +3785,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3793,9 +3803,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3811,9 +3821,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3829,9 +3839,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3847,9 +3857,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3865,9 +3875,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3883,9 +3893,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3901,9 +3911,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3919,9 +3929,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3937,9 +3947,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3955,9 +3965,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3973,9 +3983,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3991,9 +4001,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4009,21 +4019,39 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40">
+        <v>46388</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4040,10 +4068,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4066,28 +4094,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -4100,7 +4128,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4129,7 +4157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4149,17 +4177,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4180,7 +4208,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4207,7 +4235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4233,7 +4261,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4259,7 +4287,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4285,7 +4313,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4311,7 +4339,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4337,7 +4365,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4363,7 +4391,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4389,7 +4417,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4409,7 +4437,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4429,7 +4457,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4449,7 +4477,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4470,7 +4498,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4491,7 +4519,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4512,7 +4540,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4533,7 +4561,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4554,7 +4582,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4575,7 +4603,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4596,7 +4624,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4617,7 +4645,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4638,7 +4666,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4659,7 +4687,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4680,7 +4708,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4701,7 +4729,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4722,7 +4750,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4743,7 +4771,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4764,7 +4792,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4785,7 +4813,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4806,7 +4834,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4827,7 +4855,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4848,7 +4876,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4869,7 +4897,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4878,7 +4906,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4887,7 +4915,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4896,7 +4924,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4905,7 +4933,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4914,7 +4942,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4923,7 +4951,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4932,7 +4960,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4941,7 +4969,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4950,7 +4978,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4959,7 +4987,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4968,7 +4996,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4977,7 +5005,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4986,7 +5014,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4995,7 +5023,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5004,7 +5032,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5013,7 +5041,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5022,7 +5050,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5031,7 +5059,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5040,7 +5068,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5049,7 +5077,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5058,7 +5086,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5067,7 +5095,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5076,7 +5104,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5085,7 +5113,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5094,7 +5122,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5103,7 +5131,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5112,7 +5140,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5121,7 +5149,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5130,7 +5158,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
